--- a/medicine/Enfance/Patricia_A._McKillip/Patricia_A._McKillip.xlsx
+++ b/medicine/Enfance/Patricia_A._McKillip/Patricia_A._McKillip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patricia Ann McKillip, née le 29 février 1948 à Salem en Oregon et morte le 6 mai 2022[1] à Coos Bay en Oregon[2], est une autrice américaine de littérature de jeunesse et de fantasy.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patricia Ann McKillip, née le 29 février 1948 à Salem en Oregon et morte le 6 mai 2022 à Coos Bay en Oregon, est une autrice américaine de littérature de jeunesse et de fantasy.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patricia A. McKillip est née à Salem (Oregon). Elle passe une partie de son enfance en Oregon, mais aussi en Grande-Bretagne et en Allemagne, puis étudie à la San Jose State University de Californie, où elle obtient un B.A. en 1971 et une maîtrise ès arts en anglais en 1973. Elle est mariée à David Lunde, un poète.
 Auteur de romans pour la jeunesse, elle commence à écrire de la fantasy et obtient, à 24 ans, dès son premier roman dans ce genre le prix World Fantasy du meilleur roman en 1975, pour La Magicienne de la forêt d'Eld.
@@ -548,18 +562,125 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série The Riddle-Master trilogy
-(en) The Riddle-Master of Hed, 1976
+          <t>Série The Riddle-Master trilogy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) The Riddle-Master of Hed, 1976
 (en) Heir of Sea and Fire, 1977
-(en) Harpist in the Wind, 1979Prix Locus du meilleur roman de fantasy 1980
-Séries The Cygnet
-La Sorcière et le Cygne, J'ai lu, 1995 ((en) The Sorceress and the Cygnet, 1991)
-Le Cygne et l'Oiseau de feu, J'ai lu, 1996 ((en) The Cygnet and the Firebird, 1993)
-Série Kyreol
-(en) Moon-Flash, 1984
-(en) The Moon and the Face, 1985
-Romans indépendants
-(en) The House on Parchment Street, 1973
+(en) Harpist in the Wind, 1979Prix Locus du meilleur roman de fantasy 1980</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patricia_A._McKillip</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_A._McKillip</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Séries The Cygnet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Sorcière et le Cygne, J'ai lu, 1995 ((en) The Sorceress and the Cygnet, 1991)
+Le Cygne et l'Oiseau de feu, J'ai lu, 1996 ((en) The Cygnet and the Firebird, 1993)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patricia_A._McKillip</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_A._McKillip</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Kyreol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Moon-Flash, 1984
+(en) The Moon and the Face, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Patricia_A._McKillip</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_A._McKillip</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) The House on Parchment Street, 1973
 (en) The Throme of the Erril of Sherril, 1973
 La Magicienne de la forêt d'Eld, Pocket, 1993 ((en) The Forgotten Beasts of Eld, 1974)Prix World Fantasy du meilleur roman 1975
 (en) The Night Gift, 1976
@@ -578,9 +699,43 @@
 (en) Solstice Wood, 2006Prix Mythopoeic  2007
 (en) The Bell at Sealey Head, 2008
 (en) The Bards of Bone Plain, 2010
-(en) Kingfisher, 2016Prix Mythopoeic 2017
-Recueils de nouvelles
-(en) Harrowing the Dragon, 2005
+(en) Kingfisher, 2016Prix Mythopoeic 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Patricia_A._McKillip</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patricia_A._McKillip</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Harrowing the Dragon, 2005
 (en) Wonders of the Invisible World, 2012
 (en) Dreams of Distant Shores, 2016</t>
         </is>
